--- a/Combined.xlsx
+++ b/Combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="447">
   <si>
     <t>22:00 - 07:35</t>
   </si>
@@ -28,10 +28,10 @@
     <t>07:15 - 09:20</t>
   </si>
   <si>
-    <t>06:30 - 08:50</t>
-  </si>
-  <si>
-    <t>11:00 am–1:00 pm</t>
+    <t>09:00 - 11:05</t>
+  </si>
+  <si>
+    <t>9:00 am–11:05 am</t>
   </si>
   <si>
     <t>6:00 pm–8:00 pm</t>
@@ -40,7 +40,7 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>www.kayak.com/s/clickthrough.jsp?ctyp=SponsoredResultAdBooking&amp;ptyp=F&amp;orig=F..RP..M1&amp;plid=5246637&amp;pid=eDreams_FSR_US&amp;prv=eDreams_FSR_US&amp;srch=PNEiAQh3vU&amp;ploc=US&amp;atype=SponsoredResult&amp;prc=125.00&amp;cpnid=5011374&amp;xpExt=&amp;aidExt=&amp;lid=eDreams_FSR_US-PNEiAQh3vU&amp;qorig=Airport:DEL&amp;octid=&amp;qdest=Airport:BOM&amp;qstart=1684209600000&amp;qend=1686974400000&amp;qtravelers=1&amp;qrooms=0&amp;qow=false&amp;qfcc=e&amp;qdctid=31288&amp;qdac=BOM&amp;qshour=-1&amp;qehour=-1&amp;qns=false&amp;qnearby=0&amp;qnearbyo=false&amp;qnearbyd=false&amp;pj=y$2pw5mvU8arrrIA6kFdxw==&amp;ah=DnvxxsYbf8x5KEfUrxhES_DDcZ5dNH4v3mR5G_$lcEY&amp;resid=1279f4fb137476236fdcfdaeeb8045a8&amp;bookid=E-1ea59fda05f&amp;seekProv=EDREAMSAIR&amp;trueProv=EDREAMSAIR&amp;fid=&amp;rank=1&amp;stid=&amp;qadults=1&amp;qchild=0&amp;_sid_=R-5bonPLbe1vuFL0CWDKhO$-b9uTL0JBLpsrRYi8IlH5QthS5ada47h7AaY1VdVqh&amp;pageOrigin=F..RP.FE.M0</t>
+    <t>www.kayak.com/s/clickthrough.jsp?ctyp=SponsoredResultAdBooking&amp;ptyp=F&amp;orig=F..RP..M1&amp;plid=5246637&amp;pid=eDreams_FSR_US&amp;prv=eDreams_FSR_US&amp;srch=PiGCFO1ZAy&amp;ploc=US&amp;atype=SponsoredResult&amp;prc=131.00&amp;cpnid=5011374&amp;xpExt=&amp;aidExt=&amp;lid=eDreams_FSR_US-PiGCFO1ZAy&amp;qorig=Airport:DEL&amp;octid=&amp;qdest=Airport:BOM&amp;qstart=1684382400000&amp;qend=1684987200000&amp;qtravelers=1&amp;qrooms=0&amp;qow=false&amp;qfcc=e&amp;qdctid=31288&amp;qdac=BOM&amp;qshour=-1&amp;qehour=-1&amp;qns=false&amp;qnearby=0&amp;qnearbyo=false&amp;qnearbyd=false&amp;pj=y$2pw5mvU8arrrIA6kFdxw==&amp;ah=MXefH5bqhl7nYyTMeopoSqCW4YP_RM4Pcf3vX4qXV$Q&amp;resid=503e6d46c0f023f9f47ed4bf3e9bf5c4&amp;bookid=E-1ea59fda05f&amp;seekProv=EDREAMSAIR&amp;trueProv=EDREAMSAIR&amp;fid=&amp;rank=1&amp;stid=&amp;qadults=1&amp;qchild=0&amp;_sid_=R-53lYaBnvdpR1xqacnhy1A-Kbs0GBHnbsYQzZz9_CgW1decfCM3HwBeADA0IdtMT&amp;pageOrigin=F..RP.FE.M0</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -52,7 +52,7 @@
     <t>6:15 pm–8:15 pm</t>
   </si>
   <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.1b54fb3b972259e1a757b5f37126f38f&amp;h=731c6911f775&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M1</t>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.e7d8a05ac45b309f0894385a59df86a4&amp;h=890f6545ec17&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M1</t>
   </si>
   <si>
     <t>5:00 am–11:25 am</t>
@@ -61,109 +61,232 @@
     <t>2:45 pm–10:45 pm</t>
   </si>
   <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.JZO1f6NT9B8-ciubBqDvug.10622.2dcc87a0264c2337524209c761d79f14&amp;h=de485d2a6303&amp;sub=E-1fb91230d28&amp;pageOrigin=F..RP.FE.M2</t>
-  </si>
-  <si>
-    <t>7:10 pm–9:25 pm</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.ebc353b34e4d7fa8164e0ae5492629e0&amp;h=9eea977fc1ff&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M5</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.6We7wBYoN-cNUvH8T-y68A.12449.1279f4fb137476236fdcfdaeeb8045a8&amp;h=455b6f8521ff&amp;sub=E-1ea59fda05f&amp;pageOrigin=F..RP.FE.M6</t>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.JZO1f6NT9B8-ciubBqDvug.10846.30658953724d5cbc585ec5cc369c43ca&amp;h=761eee518e43&amp;sub=E-1fb91230d28&amp;pageOrigin=F..RP.FE.M2</t>
   </si>
   <si>
     <t>8:00 am–10:20 am</t>
   </si>
   <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.ce605fcaf1ae7aca1249c3dbd2ef7f2f&amp;h=ad1e62d8fc8e&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M7</t>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.66c2c907ec0a7812876f8be6b77bd32e&amp;h=755b01757c2f&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M5</t>
+  </si>
+  <si>
+    <t>9:00 am–11:20 am</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.4778d696526d298e31dda4f13a36ca71&amp;h=8234409ef6ca&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M6</t>
   </si>
   <si>
     <t>2:00 pm–4:20 pm</t>
   </si>
   <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.1ed33cd071ea500ba3bf1267d6c67277&amp;h=ebe75b5e8436&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M9</t>
-  </si>
-  <si>
-    <t>9:00 am–11:20 am</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.61a071e9ac1c0e7232889144bfc11eb6&amp;h=6b072cd26ece&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M10</t>
-  </si>
-  <si>
-    <t>9:00 am–11:05 am</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.6We7wBYoN-cNUvH8T-y68A.12449.d732958013716f92e4f0ce686b2950e2&amp;h=9081c7cf74a9&amp;sub=E-1ea59fda05f&amp;pageOrigin=F..RP.FE.M11</t>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.b15032367203c5cdd574b6d647941d68&amp;h=9ecbf4262e63&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M7</t>
+  </si>
+  <si>
+    <t>8:00 pm–10:10 pm</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13800.97f8fbc73c9bc93bd8296e61633e93d4&amp;h=aa8d5cee5d08&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M9</t>
+  </si>
+  <si>
+    <t>10:00 am–12:30 pm</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.77526e730915bc57bcf19ba488c685c0&amp;h=774c14703de5&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M10</t>
+  </si>
+  <si>
+    <t>8:00 am–10:15 am</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.bd1dfa71bf8a59ecf84ef8522955d5bb&amp;h=2b93c7af0c91&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M11</t>
   </si>
   <si>
     <t>1:00 pm–3:15 pm</t>
   </si>
   <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.bd40fadb2ab20adb7f9fe0cd8c0cc16e&amp;h=e68446cf5757&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M12</t>
-  </si>
-  <si>
-    <t>8:00 am–10:15 am</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.545c6c682b99b0c2392d316f332ad8c1&amp;h=d013f96d4bd4&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M13</t>
-  </si>
-  <si>
-    <t>7:15 am–9:20 am</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.6We7wBYoN-cNUvH8T-y68A.12449.c9f7d4b7feea38e793110c2ed30d9602&amp;h=b0db250234b6&amp;sub=E-1ea59fda05f&amp;pageOrigin=F..RP.FE.M14</t>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.7b26c33cb5e6a161429aac5e4b42958e&amp;h=866d296683bf&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M12</t>
+  </si>
+  <si>
+    <t>7:00 pm–9:15 pm</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.0199eb315decba4c133dfd4cde6eb9a6&amp;h=29669fd4c39f&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M13</t>
+  </si>
+  <si>
+    <t>5:40 pm–8:10 pm</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.5e912bc9f64ff152d3a9daed993e4d7b&amp;h=1dece8b328b5&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M14</t>
   </si>
   <si>
     <t>6:00 am–8:00 am</t>
   </si>
   <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.15200.42d4b0dc57cf62afa40b6b0babd1bb59&amp;h=3240136cb8a2&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M15</t>
-  </si>
-  <si>
-    <t>7:00 pm–9:15 pm</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.1ececce0cb3d7103991c7b2a8b16677c&amp;h=8f03e6afd0be&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M16</t>
-  </si>
-  <si>
-    <t>5:40 pm–8:10 pm</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.af42c608b29f67ef84177a1ebbd0d54d&amp;h=56d9d7330b18&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M17</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.6af006ce70620e7aa84e568693704602&amp;h=62b06a5de83b&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M18</t>
-  </si>
-  <si>
-    <t>www.kayak.com/book/flight?code=PNEiAQh3vU.mgYptEKS7RsDzQq2dWkU9A.13000.07283daf3957644be7c0568a3917987e&amp;h=64dc80599c56&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M19</t>
-  </si>
-  <si>
-    <t>https://www.makemytrip.com/flight/search?itinerary=DEL-BOM-18/04/2023_BOM-DEL-25/04/2023&amp;tripType=R&amp;paxType=A-1_C-0_I-0&amp;intl=false&amp;cabinClass=E&amp;ccde=IN&amp;lang=eng</t>
+    <t>11:55 am–1:55 pm</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.UwQrSnW3-tbTYwQ_VUUUMA.15100.e1bf42b28a2e3a5b7497af61ca39002f&amp;h=2d99b523dad6&amp;sub=E-16a352879f0&amp;pageOrigin=F..RP.FE.M15</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.15100.d9d37383db5f3c05f17da900a662f93c&amp;h=f13cf457fd7b&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M17</t>
+  </si>
+  <si>
+    <t>9:30 am–11:35 am</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.15000.a0fc6092174046348d7d38cdb80c70eb&amp;h=f21f938add2b&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M18</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.e5b4e2394ab8aaf774f70e141d260a37&amp;h=5e19886a0b79&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M19</t>
+  </si>
+  <si>
+    <t>www.kayak.com/book/flight?code=PiGCFO1ZAy.mgYptEKS7RsDzQq2dWkU9A.13000.151b63390e79935c6695cedad3d7a06d&amp;h=2bd8ede5fc80&amp;sub=E-117dccc01c7&amp;pageOrigin=F..RP.FE.M20</t>
+  </si>
+  <si>
+    <t>https://www.makemytrip.com/flight/search?itinerary=DEL-BOM-18/05/2023_BOM-DEL-25/05/2023&amp;tripType=R&amp;paxType=A-1_C-0_I-0&amp;intl=false&amp;cabinClass=E&amp;ccde=IN&amp;lang=eng</t>
   </si>
   <si>
     <t xml:space="preserve">IndiGo </t>
   </si>
   <si>
+    <t xml:space="preserve">AirAsia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air India </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go First </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpiceJet </t>
+  </si>
+  <si>
     <t xml:space="preserve">Akasa Air </t>
   </si>
   <si>
     <t xml:space="preserve">Vistara </t>
   </si>
   <si>
-    <t xml:space="preserve">AirAsia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air India </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpiceJet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go First </t>
-  </si>
-  <si>
-    <t>https://flight.yatra.com/air-search-ui/dom2/trigger?type=R&amp;viewName=normal&amp;flexi=0&amp;noOfSegments=2&amp;origin=DEL&amp;originCountry=IN&amp;destination=BOM&amp;destinationCountry=IN&amp;flight_depart_date=18%2F04%2F2023&amp;arrivalDate=25%2F04%2F2023&amp;ADT=1&amp;CHD=0&amp;INF=0&amp;class=Economy&amp;source=fresco-flights&amp;unqvaldesktop=1598078401427</t>
+    <t>https://flight.yatra.com/air-search-ui/dom2/trigger?type=R&amp;viewName=normal&amp;flexi=0&amp;noOfSegments=2&amp;origin=DEL&amp;originCountry=IN&amp;destination=BOM&amp;destinationCountry=IN&amp;flight_depart_date=18%2F05%2F2023&amp;arrivalDate=25%2F05%2F2023&amp;ADT=1&amp;CHD=0&amp;INF=0&amp;class=Economy&amp;source=fresco-flights&amp;unqvaldesktop=1598078401427</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>19:55</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>06:05</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>18:15</t>
   </si>
   <si>
     <t>IndiGo</t>
@@ -178,192 +301,345 @@
     <t>Vistara</t>
   </si>
   <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>04:35</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>03:55</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
     <t>21:55</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>07:15</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>14:20</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>19:45</t>
-  </si>
-  <si>
-    <t>20:45</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>07:30</t>
-  </si>
-  <si>
-    <t>05:00</t>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>20:55</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>05:50</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>07:35+ 1 day</t>
+  </si>
+  <si>
+    <t>04:05</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>00:45+ 1 day</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>23:35</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>04:50</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>00:05+ 1 day</t>
+  </si>
+  <si>
+    <t>01:20+ 1 day</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>06:40+ 1 day</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>20:40</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>21:10</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>01:00+ 1 day</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>00:50+ 1 day</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>09:35</t>
+  </si>
+  <si>
+    <t>00:15+ 1 day</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>9h 35m (1 stop)</t>
+  </si>
+  <si>
+    <t>2h 5m (Direct)</t>
+  </si>
+  <si>
+    <t>JAI</t>
+  </si>
+  <si>
+    <t>07:35+ 1 DAY</t>
+  </si>
+  <si>
+    <t>00:45+ 1 DAY</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>00:05+ 1 DAY</t>
+  </si>
+  <si>
+    <t>01:20+ 1 DAY</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>07:05+ 1 DAY</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>23:45</t>
   </si>
   <si>
     <t>18:10</t>
   </si>
   <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>21:15</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>13:05</t>
-  </si>
-  <si>
-    <t>22:45</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>12:05</t>
-  </si>
-  <si>
-    <t>06:40</t>
-  </si>
-  <si>
-    <t>20:25</t>
-  </si>
-  <si>
-    <t>02:30</t>
-  </si>
-  <si>
-    <t>06:05</t>
-  </si>
-  <si>
-    <t>07:45</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:10</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>17:40</t>
-  </si>
-  <si>
-    <t>21:40</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:35</t>
-  </si>
-  <si>
-    <t>18:15</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>9h 35m (1 stop)</t>
-  </si>
-  <si>
-    <t>2h 5m (Direct)</t>
-  </si>
-  <si>
-    <t>2h 20m (Direct)</t>
-  </si>
-  <si>
-    <t>JAI</t>
-  </si>
-  <si>
-    <t>07:35+ 1 DAY</t>
-  </si>
-  <si>
-    <t>08:50</t>
-  </si>
-  <si>
-    <t>09:20</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>14:55</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
     <t>19:40</t>
   </si>
   <si>
@@ -373,127 +649,259 @@
     <t>21:50</t>
   </si>
   <si>
-    <t>23:05</t>
-  </si>
-  <si>
-    <t>00:05+ 1 DAY</t>
-  </si>
-  <si>
-    <t>01:20+ 1 DAY</t>
-  </si>
-  <si>
     <t>11:35</t>
   </si>
   <si>
     <t>12:35</t>
   </si>
   <si>
+    <t>16:05</t>
+  </si>
+  <si>
     <t>09:45</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
     <t>11:15</t>
   </si>
   <si>
-    <t>11:25</t>
-  </si>
-  <si>
-    <t>06:15+ 1 DAY</t>
-  </si>
-  <si>
-    <t>09:15</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>16:20</t>
-  </si>
-  <si>
-    <t>23:35</t>
-  </si>
-  <si>
-    <t>00:45+ 1 DAY</t>
-  </si>
-  <si>
-    <t>15:10</t>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>12:20</t>
   </si>
   <si>
     <t>01:00+ 1 DAY</t>
   </si>
   <si>
+    <t>10:05</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>21:25</t>
+  </si>
+  <si>
+    <t>20:05</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>00:50+ 1 DAY</t>
+  </si>
+  <si>
     <t>00:15+ 1 DAY</t>
   </si>
   <si>
-    <t>20:40</t>
-  </si>
-  <si>
-    <t>22:35</t>
+    <t>02:45</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>01:35+ 1 DAY</t>
   </si>
   <si>
     <t>04:40</t>
   </si>
   <si>
-    <t>08:05</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>09:55</t>
-  </si>
-  <si>
     <t>10:40</t>
   </si>
   <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>12:50</t>
-  </si>
-  <si>
-    <t>16:40</t>
-  </si>
-  <si>
-    <t>19:25</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>22:25</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>19:50</t>
-  </si>
-  <si>
-    <t>23:55</t>
-  </si>
-  <si>
-    <t>00:50+ 1 DAY</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
-    <t>15:15</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>20:15</t>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>00:10+ 1 DAY</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>01:05+ 1 DAY</t>
+  </si>
+  <si>
+    <t>Air AsiaI5-743/762</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2208/5282</t>
+  </si>
+  <si>
+    <t>Air AsiaI5-743/679</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2009</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2112</t>
+  </si>
+  <si>
+    <t>IndiGo6E-6814</t>
+  </si>
+  <si>
+    <t>IndiGo6E-5112</t>
+  </si>
+  <si>
+    <t>IndiGo6E-6092</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2075</t>
+  </si>
+  <si>
+    <t>IndiGo6E-5218</t>
+  </si>
+  <si>
+    <t>Air AsiaI5-711/338</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2204/5237</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-887</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-814</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-665</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-678</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-863</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-605</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-865</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-441</t>
+  </si>
+  <si>
+    <t>Go FirstG8-2501</t>
+  </si>
+  <si>
+    <t>Go FirstG8-334</t>
+  </si>
+  <si>
+    <t>IndiGo6E-824</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2114</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2519</t>
+  </si>
+  <si>
+    <t>Air AsiaI5-492/830</t>
+  </si>
+  <si>
+    <t>IndiGo6E-5236/2405</t>
+  </si>
+  <si>
+    <t>IndiGo6E-5238/5163</t>
+  </si>
+  <si>
+    <t>Air AsiaI5-762/786</t>
+  </si>
+  <si>
+    <t>Air AsiaI5-762/766</t>
+  </si>
+  <si>
+    <t>IndiGo6E-5332</t>
+  </si>
+  <si>
+    <t>IndiGo6E-6082</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2051</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2326</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2103</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2113</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2518</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2083</t>
+  </si>
+  <si>
+    <t>IndiGo6E-5113</t>
+  </si>
+  <si>
+    <t>Go FirstG8-341</t>
+  </si>
+  <si>
+    <t>Go FirstG8-322</t>
+  </si>
+  <si>
+    <t>Go FirstG8-345</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2398</t>
+  </si>
+  <si>
+    <t>IndiGo6E-2015</t>
+  </si>
+  <si>
+    <t>SpiceJetSG-8710</t>
+  </si>
+  <si>
+    <t>SpiceJetSG-8152</t>
+  </si>
+  <si>
+    <t>SpiceJetSG-8158</t>
+  </si>
+  <si>
+    <t>Go FirstG8-339</t>
+  </si>
+  <si>
+    <t>Akasa AirQP-1127</t>
+  </si>
+  <si>
+    <t>Air IndiaAI-660</t>
   </si>
   <si>
     <t>7h in Jaipur (JAI)</t>
   </si>
   <si>
-    <t>₹9,978</t>
-  </si>
-  <si>
-    <t>₹10,503</t>
+    <t>₹9,975</t>
   </si>
   <si>
     <t>DEL-BOM</t>
@@ -508,10 +916,58 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>₹9,410</t>
-  </si>
-  <si>
-    <t>https://www.expedia.co.in/Flights-Search?flight-type=on&amp;mode=search&amp;trip=roundtrip&amp;leg1=from:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),to:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),departure:20-5-2023TANYT&amp;leg2=from:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),to:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),departure:25-5-2023TANYT&amp;options=cabinclass:economy&amp;fromDate=17/04/2023&amp;toDate=18/04/2023&amp;d1=2023-4-17&amp;d2=2023-4-18&amp;passengers=adults:1,infantinlap:N</t>
+    <t xml:space="preserve">6h 25m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9h 35m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13h 50m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 05m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 10m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 15m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 20m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11h 35m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6h 10m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 30m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 00m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8h 00m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7h 50m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10h 45m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9h 15m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8h 35m </t>
+  </si>
+  <si>
+    <t>₹9,407</t>
+  </si>
+  <si>
+    <t>https://www.expedia.co.in/Flights-Search?flight-type=on&amp;mode=search&amp;trip=roundtrip&amp;leg1=from:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),to:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),departure:18/05/2023TANYT&amp;leg2=from:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),to:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),departure:25/05/2023TANYT&amp;options=cabinclass:economy&amp;fromDate=17/04/2023&amp;toDate=18/04/2023&amp;d1=2023-4-17&amp;d2=2023-4-18&amp;passengers=adults:1,infantinlap:N</t>
   </si>
   <si>
     <t>DEL</t>
@@ -520,67 +976,256 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>Select and show fare information for IndiGo flight, departing at 02:00 from Delhi, arriving at 04:05 in Mumbai, Priced at ₹9,978 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 05:30 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹10,503 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 07:15 from Delhi, arriving at 09:20 in Mumbai, Priced at ₹10,503 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 06:30 from Delhi, arriving at 08:50 in Mumbai, Priced at ₹10,503 Return per traveller.  2 hours 20 minutes total travel time, Direct.</t>
+    <t xml:space="preserve">1 Stop </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 02:00 from Delhi, arriving at 04:05 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 05:30 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 07:15 from Delhi, arriving at 09:20 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 09:00 from Delhi, arriving at 11:05 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
   </si>
   <si>
     <t>₹ 4,440</t>
   </si>
   <si>
-    <t>₹ 4,466</t>
-  </si>
-  <si>
-    <t>₹ 4,499</t>
-  </si>
-  <si>
-    <t>₹ 4,505</t>
-  </si>
-  <si>
-    <t>₹ 4,558</t>
-  </si>
-  <si>
-    <t>₹ 4,610</t>
-  </si>
-  <si>
-    <t>₹ 4,661</t>
-  </si>
-  <si>
-    <t>₹ 4,736</t>
-  </si>
-  <si>
-    <t>₹ 4,820</t>
-  </si>
-  <si>
-    <t>₹ 4,462</t>
-  </si>
-  <si>
-    <t>₹ 4,534</t>
-  </si>
-  <si>
-    <t>₹ 4,695</t>
-  </si>
-  <si>
-    <t>₹ 4,850</t>
-  </si>
-  <si>
-    <t>₹ 4,869</t>
+    <t>₹ 5,008</t>
+  </si>
+  <si>
+    <t>₹ 5,084</t>
+  </si>
+  <si>
+    <t>₹ 5,104</t>
+  </si>
+  <si>
+    <t>₹ 5,316</t>
+  </si>
+  <si>
+    <t>₹ 5,398</t>
+  </si>
+  <si>
+    <t>₹ 5,533</t>
+  </si>
+  <si>
+    <t>₹ 5,611</t>
+  </si>
+  <si>
+    <t>₹ 5,788</t>
+  </si>
+  <si>
+    <t>₹ 5,826</t>
+  </si>
+  <si>
+    <t>₹ 5,953</t>
+  </si>
+  <si>
+    <t>₹ 5,954</t>
+  </si>
+  <si>
+    <t>₹ 6,058</t>
+  </si>
+  <si>
+    <t>₹ 6,175</t>
+  </si>
+  <si>
+    <t>₹ 6,571</t>
+  </si>
+  <si>
+    <t>₹ 6,583</t>
+  </si>
+  <si>
+    <t>₹ 6,689</t>
+  </si>
+  <si>
+    <t>₹ 6,742</t>
+  </si>
+  <si>
+    <t>₹ 6,772</t>
+  </si>
+  <si>
+    <t>₹ 6,794</t>
+  </si>
+  <si>
+    <t>₹ 6,847</t>
+  </si>
+  <si>
+    <t>₹ 6,876</t>
+  </si>
+  <si>
+    <t>₹ 6,970</t>
+  </si>
+  <si>
+    <t>₹ 7,477</t>
+  </si>
+  <si>
+    <t>₹ 7,687</t>
+  </si>
+  <si>
+    <t>₹ 8,023</t>
+  </si>
+  <si>
+    <t>₹ 8,054</t>
+  </si>
+  <si>
+    <t>₹ 8,287</t>
+  </si>
+  <si>
+    <t>₹ 8,527</t>
+  </si>
+  <si>
+    <t>₹ 8,579</t>
+  </si>
+  <si>
+    <t>₹ 8,632</t>
+  </si>
+  <si>
+    <t>₹ 9,229</t>
+  </si>
+  <si>
+    <t>₹ 4,290</t>
+  </si>
+  <si>
+    <t>₹ 4,974</t>
   </si>
   <si>
     <t>₹ 5,301</t>
   </si>
   <si>
-    <t>₹ 5,310</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 22:00 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹9,410 Return per traveller. Arrives 1 day later. 9 hours 35 minutes total travel time, One stop, Stopover for 7 hours 0 minutes in Jaipur.</t>
+    <t>₹ 5,499</t>
+  </si>
+  <si>
+    <t>₹ 5,551</t>
+  </si>
+  <si>
+    <t>₹ 5,584</t>
+  </si>
+  <si>
+    <t>₹ 5,674</t>
+  </si>
+  <si>
+    <t>₹ 5,919</t>
+  </si>
+  <si>
+    <t>₹ 6,024</t>
+  </si>
+  <si>
+    <t>₹ 6,279</t>
+  </si>
+  <si>
+    <t>₹ 6,549</t>
+  </si>
+  <si>
+    <t>₹ 6,602</t>
+  </si>
+  <si>
+    <t>₹ 6,654</t>
+  </si>
+  <si>
+    <t>₹ 6,707</t>
+  </si>
+  <si>
+    <t>₹ 6,759</t>
+  </si>
+  <si>
+    <t>₹ 6,812</t>
+  </si>
+  <si>
+    <t>₹ 7,442</t>
+  </si>
+  <si>
+    <t>₹ 7,494</t>
+  </si>
+  <si>
+    <t>₹ 7,547</t>
+  </si>
+  <si>
+    <t>₹ 7,652</t>
+  </si>
+  <si>
+    <t>₹ 7,778</t>
+  </si>
+  <si>
+    <t>₹ 8,492</t>
+  </si>
+  <si>
+    <t>₹ 8,544</t>
+  </si>
+  <si>
+    <t>₹ 8,691</t>
+  </si>
+  <si>
+    <t>₹ 17,001</t>
+  </si>
+  <si>
+    <t>4,309</t>
+  </si>
+  <si>
+    <t>4,440</t>
+  </si>
+  <si>
+    <t>4,442</t>
+  </si>
+  <si>
+    <t>5,008</t>
+  </si>
+  <si>
+    <t>5,084</t>
+  </si>
+  <si>
+    <t>5,104</t>
+  </si>
+  <si>
+    <t>5,316</t>
+  </si>
+  <si>
+    <t>5,450</t>
+  </si>
+  <si>
+    <t>5,533</t>
+  </si>
+  <si>
+    <t>4,290</t>
+  </si>
+  <si>
+    <t>4,731</t>
+  </si>
+  <si>
+    <t>4,755</t>
+  </si>
+  <si>
+    <t>4,809</t>
+  </si>
+  <si>
+    <t>4,974</t>
+  </si>
+  <si>
+    <t>5,353</t>
+  </si>
+  <si>
+    <t>5,499</t>
+  </si>
+  <si>
+    <t>5,584</t>
+  </si>
+  <si>
+    <t>5,603</t>
+  </si>
+  <si>
+    <t>5,674</t>
+  </si>
+  <si>
+    <t>5,919</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 22:00 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹9,407 Return per traveller. Arrives 1 day later. 9 hours 35 minutes total travel time, One stop, Stopover for 7 hours 0 minutes in Jaipur.</t>
   </si>
   <si>
     <t>nonstop</t>
@@ -589,39 +1234,90 @@
     <t>1 stop</t>
   </si>
   <si>
-    <t>09 h 40 m 1 stop via Jaipur</t>
+    <t>09 h 35 m 1 stop via Jaipur</t>
+  </si>
+  <si>
+    <t>02 h 05 m Non stop</t>
+  </si>
+  <si>
+    <t>02 h 20 m Non stop</t>
+  </si>
+  <si>
+    <t>02 h 15 m Non stop</t>
   </si>
   <si>
     <t>02 h 10 m Non stop</t>
   </si>
   <si>
-    <t>02 h 20 m Non stop</t>
-  </si>
-  <si>
-    <t>02 h 05 m Non stop</t>
-  </si>
-  <si>
-    <t>02 h 15 m Non stop</t>
+    <t>11 h 35 m 1 stop via Bhubaneswar</t>
+  </si>
+  <si>
+    <t>06 h 10 m 1 stop via Jaipur</t>
+  </si>
+  <si>
+    <t>02 h 30 m Non stop</t>
   </si>
   <si>
     <t>02 h Non stop</t>
   </si>
   <si>
-    <t>06 h 25 m 1 stop via Jaipur</t>
-  </si>
-  <si>
-    <t>12 h 05 m 1 stop via Ahmedabad</t>
-  </si>
-  <si>
-    <t>02 h 30 m Non stop</t>
-  </si>
-  <si>
-    <t>08 h 35 m 1 stop via Bhubaneswar</t>
+    <t>08 h 05 m 2 stop via Lucknow,Goa - Dabolim Airport</t>
+  </si>
+  <si>
+    <t>04 h 10 m 1 stop via Indore</t>
+  </si>
+  <si>
+    <t>10 h 05 m 1 stop via Indore</t>
+  </si>
+  <si>
+    <t>03 h 30 m 1 stop via Indore</t>
+  </si>
+  <si>
+    <t>06 h 55 m 1 stop via Jodhpur</t>
+  </si>
+  <si>
+    <t>08 h 10 m 1 stop via Indore</t>
+  </si>
+  <si>
+    <t>05 h 1 stop via Aurangabad</t>
+  </si>
+  <si>
+    <t>07 h 45 m 1 stop via Pune</t>
+  </si>
+  <si>
+    <t>04 h 1 stop via Ahmedabad</t>
+  </si>
+  <si>
+    <t>05 h 1 stop via Rajkot</t>
+  </si>
+  <si>
+    <t>08 h 1 stop via Jaipur</t>
   </si>
   <si>
     <t>02 h 35 m Non stop</t>
   </si>
   <si>
+    <t>05 h 1 stop via Udaipur</t>
+  </si>
+  <si>
+    <t>06 h 40 m 1 stop via Goa - Dabolim Airport</t>
+  </si>
+  <si>
+    <t>07 h 45 m 1 stop via Goa - Dabolim Airport</t>
+  </si>
+  <si>
+    <t>07 h 10 m 1 stop via Jaipur</t>
+  </si>
+  <si>
+    <t>03 h 50 m 1 stop via Ahmedabad</t>
+  </si>
+  <si>
+    <t>05 h 55 m 1 stop via Bengaluru</t>
+  </si>
+  <si>
+    <t>2h 05m</t>
+  </si>
+  <si>
     <t>2h 00m</t>
   </si>
   <si>
@@ -637,22 +1333,28 @@
     <t>2h 20m</t>
   </si>
   <si>
-    <t>2h 05m</t>
+    <t>2h 10m</t>
   </si>
   <si>
     <t>2h 30m</t>
   </si>
   <si>
-    <t>$125</t>
+    <t>$131</t>
   </si>
   <si>
     <t>$130</t>
   </si>
   <si>
-    <t>$107</t>
-  </si>
-  <si>
-    <t>$152</t>
+    <t>$109</t>
+  </si>
+  <si>
+    <t>$138</t>
+  </si>
+  <si>
+    <t>$151</t>
+  </si>
+  <si>
+    <t>$150</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1086,19 +1788,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1106,19 +1808,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1126,19 +1828,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1146,19 +1848,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1166,22 +1868,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1189,25 +1891,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1230,22 +1932,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H13" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1253,25 +1955,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G14" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H14" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1294,25 +1996,25 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>405</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1320,28 +2022,28 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>405</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1364,22 +2066,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G23" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1387,25 +2089,25 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H24" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1425,51 +2127,51 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G29" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1479,7 +2181,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1489,25 +2191,25 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1515,25 +2217,25 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1543,7 +2245,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1553,25 +2255,25 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1579,25 +2281,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H39" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I39" t="s">
-        <v>210</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1607,7 +2309,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1617,25 +2319,25 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H43" t="s">
-        <v>206</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1643,25 +2345,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I44" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1671,7 +2373,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1681,51 +2383,51 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H48" t="s">
-        <v>207</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H49" t="s">
-        <v>202</v>
+        <v>435</v>
       </c>
       <c r="I49" t="s">
-        <v>209</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1735,7 +2437,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1748,48 +2450,48 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G53" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H53" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G54" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H54" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="I54" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1799,7 +2501,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1812,48 +2514,48 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G59" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="I59" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1863,7 +2565,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -1873,51 +2575,51 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F63" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G63" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G64" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H64" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I64" t="s">
-        <v>209</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -1927,7 +2629,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -1937,51 +2639,51 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H68" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G69" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H69" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I69" t="s">
-        <v>212</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -1991,7 +2693,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2001,51 +2703,51 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G73" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H73" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G74" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H74" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
       <c r="I74" t="s">
-        <v>210</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2055,7 +2757,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2065,25 +2767,25 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F78" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G78" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H78" t="s">
-        <v>208</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2091,25 +2793,25 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G79" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
       <c r="I79" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2119,7 +2821,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2132,48 +2834,48 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G83" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G84" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H84" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="I84" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2183,7 +2885,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2193,51 +2895,51 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F88" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="G88" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H88" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="H89" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="I89" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2247,7 +2949,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -2257,33 +2959,33 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="G94" t="s">
-        <v>191</v>
+        <v>406</v>
       </c>
       <c r="H94" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -2291,831 +2993,831 @@
         <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G95" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="H95" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="G96" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="H96" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="G97" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="H97" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B98" t="s">
         <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F98" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="G98" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="H98" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F99" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="G99" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="H99" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="G100" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="H100" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="G101" t="s">
-        <v>196</v>
+        <v>411</v>
       </c>
       <c r="H101" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F102" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="G102" t="s">
-        <v>192</v>
+        <v>412</v>
       </c>
       <c r="H102" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F103" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G103" t="s">
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="H103" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G104" t="s">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="H104" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F105" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G105" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="H105" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s">
         <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F106" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G106" t="s">
-        <v>192</v>
+        <v>413</v>
       </c>
       <c r="H106" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F107" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G107" t="s">
-        <v>194</v>
+        <v>408</v>
       </c>
       <c r="H107" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D108" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F108" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G108" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="H108" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E109" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F109" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G109" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="H109" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F110" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>409</v>
       </c>
       <c r="H110" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E111" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F111" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="G111" t="s">
-        <v>194</v>
+        <v>410</v>
       </c>
       <c r="H111" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E112" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F112" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>409</v>
       </c>
       <c r="H112" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D113" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F113" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="G113" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="H113" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F114" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="G114" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="H114" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E115" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="G115" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="H115" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F116" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="G116" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="H116" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E117" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F117" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="G117" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="H117" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F118" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="G118" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="H118" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E119" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F119" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="G119" t="s">
-        <v>199</v>
+        <v>407</v>
       </c>
       <c r="H119" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F120" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="G120" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="H120" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="G121" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="H121" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F122" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="G122" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="H122" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F123" t="s">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="G123" t="s">
-        <v>194</v>
+        <v>415</v>
       </c>
       <c r="H123" t="s">
-        <v>181</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E124" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="G124" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="H124" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D125" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F125" t="s">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="G125" t="s">
-        <v>195</v>
+        <v>416</v>
       </c>
       <c r="H125" t="s">
-        <v>174</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C126" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="D126" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F126" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="G126" t="s">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="H126" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3123,493 +3825,493 @@
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F127" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="G127" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="H127" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="D128" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="G128" t="s">
-        <v>193</v>
+        <v>410</v>
       </c>
       <c r="H128" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C129" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D129" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="G129" t="s">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="H129" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E130" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F130" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="G130" t="s">
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="H130" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="D131" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F131" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="G131" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="H131" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="D132" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F132" t="s">
-        <v>185</v>
+        <v>339</v>
       </c>
       <c r="G132" t="s">
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="H132" t="s">
-        <v>185</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C133" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="G133" t="s">
-        <v>192</v>
+        <v>410</v>
       </c>
       <c r="H133" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F134" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="G134" t="s">
-        <v>192</v>
+        <v>410</v>
       </c>
       <c r="H134" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B135" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="D135" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F135" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="G135" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="H135" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F136" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="G136" t="s">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="H136" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F137" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="G137" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="H137" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D138" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E138" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F138" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="G138" t="s">
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="H138" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="D139" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F139" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="G139" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="H139" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B140" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E140" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F140" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="G140" t="s">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="H140" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F141" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="G141" t="s">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="H141" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F142" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
       <c r="G142" t="s">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="H142" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="D143" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F143" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="G143" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F144" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="G144" t="s">
-        <v>193</v>
+        <v>410</v>
       </c>
       <c r="H144" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C145" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F145" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="G145" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="H145" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3617,155 +4319,155 @@
         <v>46</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C146" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F146" t="s">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="G146" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="H146" t="s">
-        <v>187</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C147" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F147" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="G147" t="s">
-        <v>193</v>
+        <v>421</v>
       </c>
       <c r="H147" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C148" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="G148" t="s">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="H148" t="s">
-        <v>187</v>
+        <v>349</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C149" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D149" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F149" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="G149" t="s">
-        <v>201</v>
+        <v>410</v>
       </c>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D150" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="G150" t="s">
-        <v>193</v>
+        <v>409</v>
       </c>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="D151" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="G151" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -3773,25 +4475,25 @@
         <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="D152" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="G152" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="H152" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -3799,30 +4501,2772 @@
         <v>46</v>
       </c>
       <c r="B153" t="s">
+        <v>76</v>
+      </c>
+      <c r="C153" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" t="s">
+        <v>298</v>
+      </c>
+      <c r="E153" t="s">
+        <v>299</v>
+      </c>
+      <c r="F153" t="s">
+        <v>353</v>
+      </c>
+      <c r="G153" t="s">
+        <v>423</v>
+      </c>
+      <c r="H153" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" t="s">
+        <v>222</v>
+      </c>
+      <c r="D154" t="s">
+        <v>298</v>
+      </c>
+      <c r="E154" t="s">
+        <v>299</v>
+      </c>
+      <c r="F154" t="s">
+        <v>354</v>
+      </c>
+      <c r="G154" t="s">
+        <v>410</v>
+      </c>
+      <c r="H154" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" t="s">
+        <v>124</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" t="s">
+        <v>298</v>
+      </c>
+      <c r="E155" t="s">
+        <v>299</v>
+      </c>
+      <c r="F155" t="s">
+        <v>355</v>
+      </c>
+      <c r="G155" t="s">
+        <v>408</v>
+      </c>
+      <c r="H155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" t="s">
+        <v>125</v>
+      </c>
+      <c r="C156" t="s">
+        <v>223</v>
+      </c>
+      <c r="D156" t="s">
+        <v>298</v>
+      </c>
+      <c r="E156" t="s">
+        <v>299</v>
+      </c>
+      <c r="F156" t="s">
+        <v>355</v>
+      </c>
+      <c r="G156" t="s">
+        <v>409</v>
+      </c>
+      <c r="H156" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" t="s">
+        <v>298</v>
+      </c>
+      <c r="E157" t="s">
+        <v>299</v>
+      </c>
+      <c r="F157" t="s">
+        <v>355</v>
+      </c>
+      <c r="G157" t="s">
+        <v>409</v>
+      </c>
+      <c r="H157" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" t="s">
+        <v>298</v>
+      </c>
+      <c r="E158" t="s">
+        <v>299</v>
+      </c>
+      <c r="F158" t="s">
+        <v>356</v>
+      </c>
+      <c r="G158" t="s">
+        <v>408</v>
+      </c>
+      <c r="H158" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" t="s">
+        <v>298</v>
+      </c>
+      <c r="E159" t="s">
+        <v>299</v>
+      </c>
+      <c r="F159" t="s">
+        <v>356</v>
+      </c>
+      <c r="G159" t="s">
+        <v>410</v>
+      </c>
+      <c r="H159" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" t="s">
+        <v>226</v>
+      </c>
+      <c r="D160" t="s">
+        <v>298</v>
+      </c>
+      <c r="E160" t="s">
+        <v>299</v>
+      </c>
+      <c r="F160" t="s">
+        <v>357</v>
+      </c>
+      <c r="G160" t="s">
+        <v>424</v>
+      </c>
+      <c r="H160" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>83</v>
+      </c>
+      <c r="D161" t="s">
+        <v>299</v>
+      </c>
+      <c r="E161" t="s">
+        <v>298</v>
+      </c>
+      <c r="F161" t="s">
+        <v>358</v>
+      </c>
+      <c r="G161" t="s">
+        <v>425</v>
+      </c>
+      <c r="H161" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162" t="s">
+        <v>299</v>
+      </c>
+      <c r="E162" t="s">
+        <v>298</v>
+      </c>
+      <c r="F162" t="s">
+        <v>359</v>
+      </c>
+      <c r="G162" t="s">
+        <v>414</v>
+      </c>
+      <c r="H162" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163" t="s">
+        <v>299</v>
+      </c>
+      <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="F163" t="s">
+        <v>359</v>
+      </c>
+      <c r="G163" t="s">
+        <v>408</v>
+      </c>
+      <c r="H163" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" t="s">
+        <v>298</v>
+      </c>
+      <c r="F164" t="s">
+        <v>359</v>
+      </c>
+      <c r="G164" t="s">
+        <v>410</v>
+      </c>
+      <c r="H164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
+        <v>80</v>
+      </c>
+      <c r="C165" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" t="s">
+        <v>299</v>
+      </c>
+      <c r="E165" t="s">
+        <v>298</v>
+      </c>
+      <c r="F165" t="s">
+        <v>359</v>
+      </c>
+      <c r="G165" t="s">
+        <v>410</v>
+      </c>
+      <c r="H165" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" t="s">
+        <v>99</v>
+      </c>
+      <c r="D166" t="s">
+        <v>299</v>
+      </c>
+      <c r="E166" t="s">
+        <v>298</v>
+      </c>
+      <c r="F166" t="s">
+        <v>359</v>
+      </c>
+      <c r="G166" t="s">
+        <v>414</v>
+      </c>
+      <c r="H166" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167" t="s">
+        <v>359</v>
+      </c>
+      <c r="G167" t="s">
+        <v>410</v>
+      </c>
+      <c r="H167" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168" t="s">
+        <v>299</v>
+      </c>
+      <c r="E168" t="s">
+        <v>298</v>
+      </c>
+      <c r="F168" t="s">
+        <v>359</v>
+      </c>
+      <c r="G168" t="s">
+        <v>409</v>
+      </c>
+      <c r="H168" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" t="s">
+        <v>78</v>
+      </c>
+      <c r="C169" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" t="s">
+        <v>299</v>
+      </c>
+      <c r="E169" t="s">
+        <v>298</v>
+      </c>
+      <c r="F169" t="s">
+        <v>359</v>
+      </c>
+      <c r="G169" t="s">
+        <v>414</v>
+      </c>
+      <c r="H169" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170" t="s">
+        <v>83</v>
+      </c>
+      <c r="C170" t="s">
+        <v>220</v>
+      </c>
+      <c r="D170" t="s">
+        <v>299</v>
+      </c>
+      <c r="E170" t="s">
+        <v>298</v>
+      </c>
+      <c r="F170" t="s">
+        <v>359</v>
+      </c>
+      <c r="G170" t="s">
+        <v>409</v>
+      </c>
+      <c r="H170" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171" t="s">
+        <v>85</v>
+      </c>
+      <c r="C171" t="s">
+        <v>141</v>
+      </c>
+      <c r="D171" t="s">
+        <v>299</v>
+      </c>
+      <c r="E171" t="s">
+        <v>298</v>
+      </c>
+      <c r="F171" t="s">
+        <v>360</v>
+      </c>
+      <c r="G171" t="s">
+        <v>407</v>
+      </c>
+      <c r="H171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" t="s">
+        <v>86</v>
+      </c>
+      <c r="C172" t="s">
+        <v>184</v>
+      </c>
+      <c r="D172" t="s">
+        <v>299</v>
+      </c>
+      <c r="E172" t="s">
+        <v>298</v>
+      </c>
+      <c r="F172" t="s">
+        <v>360</v>
+      </c>
+      <c r="G172" t="s">
+        <v>409</v>
+      </c>
+      <c r="H172" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" t="s">
+        <v>227</v>
+      </c>
+      <c r="D173" t="s">
+        <v>299</v>
+      </c>
+      <c r="E173" t="s">
+        <v>298</v>
+      </c>
+      <c r="F173" t="s">
+        <v>360</v>
+      </c>
+      <c r="G173" t="s">
+        <v>408</v>
+      </c>
+      <c r="H173" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>43</v>
+      </c>
+      <c r="B174" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" t="s">
+        <v>114</v>
+      </c>
+      <c r="D174" t="s">
+        <v>299</v>
+      </c>
+      <c r="E174" t="s">
+        <v>298</v>
+      </c>
+      <c r="F174" t="s">
+        <v>361</v>
+      </c>
+      <c r="G174" t="s">
+        <v>410</v>
+      </c>
+      <c r="H174" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>157</v>
+      </c>
+      <c r="D175" t="s">
+        <v>299</v>
+      </c>
+      <c r="E175" t="s">
+        <v>298</v>
+      </c>
+      <c r="F175" t="s">
+        <v>361</v>
+      </c>
+      <c r="G175" t="s">
+        <v>410</v>
+      </c>
+      <c r="H175" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" t="s">
+        <v>85</v>
+      </c>
+      <c r="D176" t="s">
+        <v>299</v>
+      </c>
+      <c r="E176" t="s">
+        <v>298</v>
+      </c>
+      <c r="F176" t="s">
+        <v>362</v>
+      </c>
+      <c r="G176" t="s">
+        <v>410</v>
+      </c>
+      <c r="H176" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177" t="s">
+        <v>299</v>
+      </c>
+      <c r="E177" t="s">
+        <v>298</v>
+      </c>
+      <c r="F177" t="s">
+        <v>363</v>
+      </c>
+      <c r="G177" t="s">
+        <v>409</v>
+      </c>
+      <c r="H177" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" t="s">
+        <v>87</v>
+      </c>
+      <c r="C178" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" t="s">
+        <v>299</v>
+      </c>
+      <c r="E178" t="s">
+        <v>298</v>
+      </c>
+      <c r="F178" t="s">
+        <v>363</v>
+      </c>
+      <c r="G178" t="s">
+        <v>410</v>
+      </c>
+      <c r="H178" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" t="s">
+        <v>228</v>
+      </c>
+      <c r="D179" t="s">
+        <v>299</v>
+      </c>
+      <c r="E179" t="s">
+        <v>298</v>
+      </c>
+      <c r="F179" t="s">
+        <v>363</v>
+      </c>
+      <c r="G179" t="s">
+        <v>413</v>
+      </c>
+      <c r="H179" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180" t="s">
+        <v>299</v>
+      </c>
+      <c r="E180" t="s">
+        <v>298</v>
+      </c>
+      <c r="F180" t="s">
+        <v>364</v>
+      </c>
+      <c r="G180" t="s">
+        <v>407</v>
+      </c>
+      <c r="H180" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>45</v>
+      </c>
+      <c r="B181" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181" t="s">
+        <v>229</v>
+      </c>
+      <c r="D181" t="s">
+        <v>299</v>
+      </c>
+      <c r="E181" t="s">
+        <v>298</v>
+      </c>
+      <c r="F181" t="s">
+        <v>365</v>
+      </c>
+      <c r="G181" t="s">
+        <v>409</v>
+      </c>
+      <c r="H181" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>45</v>
+      </c>
+      <c r="B182" t="s">
+        <v>58</v>
+      </c>
+      <c r="C182" t="s">
+        <v>158</v>
+      </c>
+      <c r="D182" t="s">
+        <v>299</v>
+      </c>
+      <c r="E182" t="s">
+        <v>298</v>
+      </c>
+      <c r="F182" t="s">
+        <v>365</v>
+      </c>
+      <c r="G182" t="s">
+        <v>409</v>
+      </c>
+      <c r="H182" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" t="s">
+        <v>164</v>
+      </c>
+      <c r="D183" t="s">
+        <v>299</v>
+      </c>
+      <c r="E183" t="s">
+        <v>298</v>
+      </c>
+      <c r="F183" t="s">
+        <v>365</v>
+      </c>
+      <c r="G183" t="s">
+        <v>408</v>
+      </c>
+      <c r="H183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" t="s">
+        <v>66</v>
+      </c>
+      <c r="C184" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" t="s">
+        <v>299</v>
+      </c>
+      <c r="E184" t="s">
+        <v>298</v>
+      </c>
+      <c r="F184" t="s">
+        <v>365</v>
+      </c>
+      <c r="G184" t="s">
+        <v>408</v>
+      </c>
+      <c r="H184" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>45</v>
+      </c>
+      <c r="B185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" t="s">
+        <v>230</v>
+      </c>
+      <c r="D185" t="s">
+        <v>299</v>
+      </c>
+      <c r="E185" t="s">
+        <v>298</v>
+      </c>
+      <c r="F185" t="s">
+        <v>365</v>
+      </c>
+      <c r="G185" t="s">
+        <v>409</v>
+      </c>
+      <c r="H185" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>45</v>
+      </c>
+      <c r="B186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C186" t="s">
+        <v>207</v>
+      </c>
+      <c r="D186" t="s">
+        <v>299</v>
+      </c>
+      <c r="E186" t="s">
+        <v>298</v>
+      </c>
+      <c r="F186" t="s">
+        <v>365</v>
+      </c>
+      <c r="G186" t="s">
+        <v>426</v>
+      </c>
+      <c r="H186" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" t="s">
+        <v>231</v>
+      </c>
+      <c r="D187" t="s">
+        <v>299</v>
+      </c>
+      <c r="E187" t="s">
+        <v>298</v>
+      </c>
+      <c r="F187" t="s">
+        <v>365</v>
+      </c>
+      <c r="G187" t="s">
+        <v>408</v>
+      </c>
+      <c r="H187" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" t="s">
+        <v>299</v>
+      </c>
+      <c r="E188" t="s">
+        <v>298</v>
+      </c>
+      <c r="F188" t="s">
+        <v>365</v>
+      </c>
+      <c r="G188" t="s">
+        <v>414</v>
+      </c>
+      <c r="H188" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>45</v>
+      </c>
+      <c r="B189" t="s">
+        <v>81</v>
+      </c>
+      <c r="C189" t="s">
+        <v>65</v>
+      </c>
+      <c r="D189" t="s">
+        <v>299</v>
+      </c>
+      <c r="E189" t="s">
+        <v>298</v>
+      </c>
+      <c r="F189" t="s">
+        <v>365</v>
+      </c>
+      <c r="G189" t="s">
+        <v>409</v>
+      </c>
+      <c r="H189" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" t="s">
         <v>102</v>
       </c>
-      <c r="C153" t="s">
-        <v>119</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C190" t="s">
+        <v>205</v>
+      </c>
+      <c r="D190" t="s">
+        <v>299</v>
+      </c>
+      <c r="E190" t="s">
+        <v>298</v>
+      </c>
+      <c r="F190" t="s">
+        <v>365</v>
+      </c>
+      <c r="G190" t="s">
+        <v>407</v>
+      </c>
+      <c r="H190" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191" t="s">
+        <v>131</v>
+      </c>
+      <c r="C191" t="s">
+        <v>216</v>
+      </c>
+      <c r="D191" t="s">
+        <v>299</v>
+      </c>
+      <c r="E191" t="s">
+        <v>298</v>
+      </c>
+      <c r="F191" t="s">
+        <v>365</v>
+      </c>
+      <c r="G191" t="s">
+        <v>427</v>
+      </c>
+      <c r="H191" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+      <c r="C192" t="s">
+        <v>55</v>
+      </c>
+      <c r="D192" t="s">
+        <v>299</v>
+      </c>
+      <c r="E192" t="s">
+        <v>298</v>
+      </c>
+      <c r="F192" t="s">
+        <v>366</v>
+      </c>
+      <c r="G192" t="s">
+        <v>409</v>
+      </c>
+      <c r="H192" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>43</v>
+      </c>
+      <c r="B193" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193" t="s">
+        <v>217</v>
+      </c>
+      <c r="D193" t="s">
+        <v>299</v>
+      </c>
+      <c r="E193" t="s">
+        <v>298</v>
+      </c>
+      <c r="F193" t="s">
+        <v>366</v>
+      </c>
+      <c r="G193" t="s">
+        <v>410</v>
+      </c>
+      <c r="H193" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>43</v>
+      </c>
+      <c r="B194" t="s">
+        <v>110</v>
+      </c>
+      <c r="C194" t="s">
+        <v>113</v>
+      </c>
+      <c r="D194" t="s">
+        <v>299</v>
+      </c>
+      <c r="E194" t="s">
+        <v>298</v>
+      </c>
+      <c r="F194" t="s">
+        <v>366</v>
+      </c>
+      <c r="G194" t="s">
+        <v>410</v>
+      </c>
+      <c r="H194" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>43</v>
+      </c>
+      <c r="B195" t="s">
+        <v>133</v>
+      </c>
+      <c r="C195" t="s">
+        <v>117</v>
+      </c>
+      <c r="D195" t="s">
+        <v>299</v>
+      </c>
+      <c r="E195" t="s">
+        <v>298</v>
+      </c>
+      <c r="F195" t="s">
+        <v>366</v>
+      </c>
+      <c r="G195" t="s">
+        <v>408</v>
+      </c>
+      <c r="H195" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" t="s">
+        <v>104</v>
+      </c>
+      <c r="C196" t="s">
+        <v>232</v>
+      </c>
+      <c r="D196" t="s">
+        <v>299</v>
+      </c>
+      <c r="E196" t="s">
+        <v>298</v>
+      </c>
+      <c r="F196" t="s">
+        <v>366</v>
+      </c>
+      <c r="G196" t="s">
+        <v>410</v>
+      </c>
+      <c r="H196" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" t="s">
+        <v>233</v>
+      </c>
+      <c r="D197" t="s">
+        <v>299</v>
+      </c>
+      <c r="E197" t="s">
+        <v>298</v>
+      </c>
+      <c r="F197" t="s">
+        <v>367</v>
+      </c>
+      <c r="G197" t="s">
+        <v>428</v>
+      </c>
+      <c r="H197" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>44</v>
+      </c>
+      <c r="B198" t="s">
+        <v>135</v>
+      </c>
+      <c r="C198" t="s">
+        <v>234</v>
+      </c>
+      <c r="D198" t="s">
+        <v>299</v>
+      </c>
+      <c r="E198" t="s">
+        <v>298</v>
+      </c>
+      <c r="F198" t="s">
+        <v>367</v>
+      </c>
+      <c r="G198" t="s">
+        <v>429</v>
+      </c>
+      <c r="H198" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" t="s">
+        <v>136</v>
+      </c>
+      <c r="C199" t="s">
+        <v>235</v>
+      </c>
+      <c r="D199" t="s">
+        <v>299</v>
+      </c>
+      <c r="E199" t="s">
+        <v>298</v>
+      </c>
+      <c r="F199" t="s">
+        <v>368</v>
+      </c>
+      <c r="G199" t="s">
+        <v>410</v>
+      </c>
+      <c r="H199" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200" t="s">
+        <v>137</v>
+      </c>
+      <c r="C200" t="s">
+        <v>236</v>
+      </c>
+      <c r="D200" t="s">
+        <v>299</v>
+      </c>
+      <c r="E200" t="s">
+        <v>298</v>
+      </c>
+      <c r="F200" t="s">
+        <v>368</v>
+      </c>
+      <c r="G200" t="s">
+        <v>410</v>
+      </c>
+      <c r="H200" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201" t="s">
+        <v>138</v>
+      </c>
+      <c r="C201" t="s">
+        <v>237</v>
+      </c>
+      <c r="D201" t="s">
+        <v>299</v>
+      </c>
+      <c r="E201" t="s">
+        <v>298</v>
+      </c>
+      <c r="F201" t="s">
+        <v>369</v>
+      </c>
+      <c r="G201" t="s">
+        <v>409</v>
+      </c>
+      <c r="H201" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" t="s">
+        <v>139</v>
+      </c>
+      <c r="C202" t="s">
+        <v>238</v>
+      </c>
+      <c r="D202" t="s">
+        <v>299</v>
+      </c>
+      <c r="E202" t="s">
+        <v>298</v>
+      </c>
+      <c r="F202" t="s">
+        <v>370</v>
+      </c>
+      <c r="G202" t="s">
+        <v>409</v>
+      </c>
+      <c r="H202" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" t="s">
+        <v>112</v>
+      </c>
+      <c r="C203" t="s">
+        <v>176</v>
+      </c>
+      <c r="D203" t="s">
+        <v>299</v>
+      </c>
+      <c r="E203" t="s">
+        <v>298</v>
+      </c>
+      <c r="F203" t="s">
+        <v>371</v>
+      </c>
+      <c r="G203" t="s">
+        <v>407</v>
+      </c>
+      <c r="H203" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" t="s">
+        <v>200</v>
+      </c>
+      <c r="D204" t="s">
+        <v>299</v>
+      </c>
+      <c r="E204" t="s">
+        <v>298</v>
+      </c>
+      <c r="F204" t="s">
+        <v>371</v>
+      </c>
+      <c r="G204" t="s">
+        <v>410</v>
+      </c>
+      <c r="H204" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" t="s">
+        <v>140</v>
+      </c>
+      <c r="C205" t="s">
+        <v>239</v>
+      </c>
+      <c r="D205" t="s">
+        <v>299</v>
+      </c>
+      <c r="E205" t="s">
+        <v>298</v>
+      </c>
+      <c r="F205" t="s">
+        <v>371</v>
+      </c>
+      <c r="G205" t="s">
+        <v>410</v>
+      </c>
+      <c r="H205" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>49</v>
+      </c>
+      <c r="B206" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206" t="s">
+        <v>240</v>
+      </c>
+      <c r="D206" t="s">
+        <v>299</v>
+      </c>
+      <c r="E206" t="s">
+        <v>298</v>
+      </c>
+      <c r="F206" t="s">
+        <v>371</v>
+      </c>
+      <c r="G206" t="s">
+        <v>409</v>
+      </c>
+      <c r="H206" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>49</v>
+      </c>
+      <c r="B207" t="s">
+        <v>142</v>
+      </c>
+      <c r="C207" t="s">
+        <v>241</v>
+      </c>
+      <c r="D207" t="s">
+        <v>299</v>
+      </c>
+      <c r="E207" t="s">
+        <v>298</v>
+      </c>
+      <c r="F207" t="s">
+        <v>372</v>
+      </c>
+      <c r="G207" t="s">
+        <v>414</v>
+      </c>
+      <c r="H207" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>49</v>
+      </c>
+      <c r="B208" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" t="s">
+        <v>242</v>
+      </c>
+      <c r="D208" t="s">
+        <v>299</v>
+      </c>
+      <c r="E208" t="s">
+        <v>298</v>
+      </c>
+      <c r="F208" t="s">
+        <v>373</v>
+      </c>
+      <c r="G208" t="s">
+        <v>408</v>
+      </c>
+      <c r="H208" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>43</v>
+      </c>
+      <c r="B209" t="s">
+        <v>143</v>
+      </c>
+      <c r="C209" t="s">
+        <v>120</v>
+      </c>
+      <c r="D209" t="s">
+        <v>299</v>
+      </c>
+      <c r="E209" t="s">
+        <v>298</v>
+      </c>
+      <c r="F209" t="s">
+        <v>373</v>
+      </c>
+      <c r="G209" t="s">
+        <v>430</v>
+      </c>
+      <c r="H209" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>49</v>
+      </c>
+      <c r="B210" t="s">
+        <v>144</v>
+      </c>
+      <c r="C210" t="s">
+        <v>243</v>
+      </c>
+      <c r="D210" t="s">
+        <v>299</v>
+      </c>
+      <c r="E210" t="s">
+        <v>298</v>
+      </c>
+      <c r="F210" t="s">
+        <v>374</v>
+      </c>
+      <c r="G210" t="s">
+        <v>409</v>
+      </c>
+      <c r="H210" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>49</v>
+      </c>
+      <c r="B211" t="s">
+        <v>145</v>
+      </c>
+      <c r="C211" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" t="s">
+        <v>299</v>
+      </c>
+      <c r="E211" t="s">
+        <v>298</v>
+      </c>
+      <c r="F211" t="s">
+        <v>375</v>
+      </c>
+      <c r="G211" t="s">
+        <v>409</v>
+      </c>
+      <c r="H211" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>49</v>
+      </c>
+      <c r="B212" t="s">
+        <v>108</v>
+      </c>
+      <c r="C212" t="s">
+        <v>175</v>
+      </c>
+      <c r="D212" t="s">
+        <v>299</v>
+      </c>
+      <c r="E212" t="s">
+        <v>298</v>
+      </c>
+      <c r="F212" t="s">
+        <v>375</v>
+      </c>
+      <c r="G212" t="s">
+        <v>410</v>
+      </c>
+      <c r="H212" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>49</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" t="s">
+        <v>141</v>
+      </c>
+      <c r="D213" t="s">
+        <v>299</v>
+      </c>
+      <c r="E213" t="s">
+        <v>298</v>
+      </c>
+      <c r="F213" t="s">
+        <v>375</v>
+      </c>
+      <c r="G213" t="s">
+        <v>410</v>
+      </c>
+      <c r="H213" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>49</v>
+      </c>
+      <c r="B214" t="s">
+        <v>146</v>
+      </c>
+      <c r="C214" t="s">
+        <v>109</v>
+      </c>
+      <c r="D214" t="s">
+        <v>299</v>
+      </c>
+      <c r="E214" t="s">
+        <v>298</v>
+      </c>
+      <c r="F214" t="s">
+        <v>376</v>
+      </c>
+      <c r="G214" t="s">
+        <v>410</v>
+      </c>
+      <c r="H214" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>49</v>
+      </c>
+      <c r="B215" t="s">
+        <v>147</v>
+      </c>
+      <c r="C215" t="s">
+        <v>222</v>
+      </c>
+      <c r="D215" t="s">
+        <v>299</v>
+      </c>
+      <c r="E215" t="s">
+        <v>298</v>
+      </c>
+      <c r="F215" t="s">
+        <v>377</v>
+      </c>
+      <c r="G215" t="s">
+        <v>407</v>
+      </c>
+      <c r="H215" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>49</v>
+      </c>
+      <c r="B216" t="s">
+        <v>148</v>
+      </c>
+      <c r="C216" t="s">
+        <v>139</v>
+      </c>
+      <c r="D216" t="s">
+        <v>299</v>
+      </c>
+      <c r="E216" t="s">
+        <v>298</v>
+      </c>
+      <c r="F216" t="s">
+        <v>378</v>
+      </c>
+      <c r="G216" t="s">
+        <v>431</v>
+      </c>
+      <c r="H216" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217" t="s">
+        <v>116</v>
+      </c>
+      <c r="C217" t="s">
+        <v>169</v>
+      </c>
+      <c r="D217" t="s">
+        <v>299</v>
+      </c>
+      <c r="E217" t="s">
+        <v>298</v>
+      </c>
+      <c r="F217" t="s">
+        <v>379</v>
+      </c>
+      <c r="G217" t="s">
+        <v>410</v>
+      </c>
+      <c r="H217" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B218" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" t="s">
+        <v>162</v>
+      </c>
+      <c r="D218" t="s">
+        <v>299</v>
+      </c>
+      <c r="E218" t="s">
+        <v>298</v>
+      </c>
+      <c r="F218" t="s">
+        <v>380</v>
+      </c>
+      <c r="G218" t="s">
+        <v>409</v>
+      </c>
+      <c r="H218" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" t="s">
+        <v>149</v>
+      </c>
+      <c r="C219" t="s">
+        <v>217</v>
+      </c>
+      <c r="D219" t="s">
+        <v>299</v>
+      </c>
+      <c r="E219" t="s">
+        <v>298</v>
+      </c>
+      <c r="F219" t="s">
+        <v>381</v>
+      </c>
+      <c r="G219" t="s">
+        <v>432</v>
+      </c>
+      <c r="H219" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220" t="s">
+        <v>150</v>
+      </c>
+      <c r="C220" t="s">
+        <v>58</v>
+      </c>
+      <c r="D220" t="s">
+        <v>299</v>
+      </c>
+      <c r="E220" t="s">
+        <v>298</v>
+      </c>
+      <c r="F220" t="s">
+        <v>382</v>
+      </c>
+      <c r="G220" t="s">
+        <v>410</v>
+      </c>
+      <c r="H220" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>51</v>
+      </c>
+      <c r="B222" t="s">
+        <v>151</v>
+      </c>
+      <c r="C222" t="s">
+        <v>244</v>
+      </c>
+      <c r="D222" t="s">
+        <v>300</v>
+      </c>
+      <c r="E222" t="s">
+        <v>320</v>
+      </c>
+      <c r="F222" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>52</v>
+      </c>
+      <c r="B223" t="s">
+        <v>152</v>
+      </c>
+      <c r="C223" t="s">
+        <v>245</v>
+      </c>
+      <c r="D223" t="s">
+        <v>301</v>
+      </c>
+      <c r="E223" t="s">
+        <v>320</v>
+      </c>
+      <c r="F223" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" t="s">
+        <v>246</v>
+      </c>
+      <c r="D224" t="s">
+        <v>302</v>
+      </c>
+      <c r="E224" t="s">
+        <v>320</v>
+      </c>
+      <c r="F224" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" t="s">
+        <v>153</v>
+      </c>
+      <c r="C225" t="s">
+        <v>247</v>
+      </c>
+      <c r="D225" t="s">
+        <v>303</v>
+      </c>
+      <c r="E225" t="s">
+        <v>321</v>
+      </c>
+      <c r="F225" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226" t="s">
+        <v>154</v>
+      </c>
+      <c r="C226" t="s">
+        <v>248</v>
+      </c>
+      <c r="D226" t="s">
+        <v>303</v>
+      </c>
+      <c r="E226" t="s">
+        <v>321</v>
+      </c>
+      <c r="F226" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>55</v>
+      </c>
+      <c r="B227" t="s">
+        <v>155</v>
+      </c>
+      <c r="C227" t="s">
+        <v>249</v>
+      </c>
+      <c r="D227" t="s">
+        <v>303</v>
+      </c>
+      <c r="E227" t="s">
+        <v>321</v>
+      </c>
+      <c r="F227" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>56</v>
+      </c>
+      <c r="B228" t="s">
+        <v>156</v>
+      </c>
+      <c r="C228" t="s">
+        <v>250</v>
+      </c>
+      <c r="D228" t="s">
+        <v>303</v>
+      </c>
+      <c r="E228" t="s">
+        <v>321</v>
+      </c>
+      <c r="F228" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>57</v>
+      </c>
+      <c r="B229" t="s">
+        <v>157</v>
+      </c>
+      <c r="C229" t="s">
+        <v>251</v>
+      </c>
+      <c r="D229" t="s">
+        <v>304</v>
+      </c>
+      <c r="E229" t="s">
+        <v>321</v>
+      </c>
+      <c r="F229" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>58</v>
+      </c>
+      <c r="B230" t="s">
+        <v>158</v>
+      </c>
+      <c r="C230" t="s">
+        <v>252</v>
+      </c>
+      <c r="D230" t="s">
+        <v>305</v>
+      </c>
+      <c r="E230" t="s">
+        <v>321</v>
+      </c>
+      <c r="F230" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" t="s">
+        <v>159</v>
+      </c>
+      <c r="C231" t="s">
+        <v>253</v>
+      </c>
+      <c r="D231" t="s">
+        <v>306</v>
+      </c>
+      <c r="E231" t="s">
+        <v>321</v>
+      </c>
+      <c r="F231" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" t="s">
+        <v>160</v>
+      </c>
+      <c r="C232" t="s">
+        <v>254</v>
+      </c>
+      <c r="D232" t="s">
+        <v>307</v>
+      </c>
+      <c r="E232" t="s">
+        <v>320</v>
+      </c>
+      <c r="F232" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>61</v>
+      </c>
+      <c r="B233" t="s">
+        <v>161</v>
+      </c>
+      <c r="C233" t="s">
+        <v>255</v>
+      </c>
+      <c r="D233" t="s">
+        <v>308</v>
+      </c>
+      <c r="E233" t="s">
+        <v>320</v>
+      </c>
+      <c r="F233" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>62</v>
+      </c>
+      <c r="B234" t="s">
+        <v>162</v>
+      </c>
+      <c r="C234" t="s">
+        <v>256</v>
+      </c>
+      <c r="D234" t="s">
+        <v>305</v>
+      </c>
+      <c r="E234" t="s">
+        <v>321</v>
+      </c>
+      <c r="F234" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>63</v>
+      </c>
+      <c r="B235" t="s">
         <v>163</v>
       </c>
-      <c r="E153" t="s">
-        <v>162</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="C235" t="s">
+        <v>257</v>
+      </c>
+      <c r="D235" t="s">
+        <v>305</v>
+      </c>
+      <c r="E235" t="s">
+        <v>321</v>
+      </c>
+      <c r="F235" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>58</v>
+      </c>
+      <c r="B236" t="s">
+        <v>111</v>
+      </c>
+      <c r="C236" t="s">
+        <v>258</v>
+      </c>
+      <c r="D236" t="s">
+        <v>306</v>
+      </c>
+      <c r="E236" t="s">
+        <v>321</v>
+      </c>
+      <c r="F236" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" t="s">
+        <v>164</v>
+      </c>
+      <c r="C237" t="s">
+        <v>259</v>
+      </c>
+      <c r="D237" t="s">
+        <v>306</v>
+      </c>
+      <c r="E237" t="s">
+        <v>321</v>
+      </c>
+      <c r="F237" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>64</v>
+      </c>
+      <c r="B238" t="s">
+        <v>165</v>
+      </c>
+      <c r="C238" t="s">
+        <v>260</v>
+      </c>
+      <c r="D238" t="s">
+        <v>306</v>
+      </c>
+      <c r="E238" t="s">
+        <v>321</v>
+      </c>
+      <c r="F238" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>65</v>
+      </c>
+      <c r="B239" t="s">
+        <v>166</v>
+      </c>
+      <c r="C239" t="s">
+        <v>261</v>
+      </c>
+      <c r="D239" t="s">
+        <v>306</v>
+      </c>
+      <c r="E239" t="s">
+        <v>321</v>
+      </c>
+      <c r="F239" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>66</v>
+      </c>
+      <c r="B240" t="s">
+        <v>167</v>
+      </c>
+      <c r="C240" t="s">
+        <v>262</v>
+      </c>
+      <c r="D240" t="s">
+        <v>309</v>
+      </c>
+      <c r="E240" t="s">
+        <v>321</v>
+      </c>
+      <c r="F240" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>67</v>
+      </c>
+      <c r="B241" t="s">
+        <v>82</v>
+      </c>
+      <c r="C241" t="s">
+        <v>263</v>
+      </c>
+      <c r="D241" t="s">
+        <v>309</v>
+      </c>
+      <c r="E241" t="s">
+        <v>321</v>
+      </c>
+      <c r="F241" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>68</v>
+      </c>
+      <c r="B242" t="s">
+        <v>168</v>
+      </c>
+      <c r="C242" t="s">
+        <v>264</v>
+      </c>
+      <c r="D242" t="s">
+        <v>304</v>
+      </c>
+      <c r="E242" t="s">
+        <v>321</v>
+      </c>
+      <c r="F242" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>69</v>
+      </c>
+      <c r="B243" t="s">
+        <v>169</v>
+      </c>
+      <c r="C243" t="s">
+        <v>265</v>
+      </c>
+      <c r="D243" t="s">
+        <v>305</v>
+      </c>
+      <c r="E243" t="s">
+        <v>321</v>
+      </c>
+      <c r="F243" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>70</v>
+      </c>
+      <c r="B244" t="s">
+        <v>129</v>
+      </c>
+      <c r="C244" t="s">
+        <v>266</v>
+      </c>
+      <c r="D244" t="s">
+        <v>310</v>
+      </c>
+      <c r="E244" t="s">
+        <v>321</v>
+      </c>
+      <c r="F244" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245" t="s">
+        <v>170</v>
+      </c>
+      <c r="C245" t="s">
+        <v>267</v>
+      </c>
+      <c r="D245" t="s">
+        <v>303</v>
+      </c>
+      <c r="E245" t="s">
+        <v>321</v>
+      </c>
+      <c r="F245" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>71</v>
+      </c>
+      <c r="B246" t="s">
+        <v>171</v>
+      </c>
+      <c r="C246" t="s">
+        <v>268</v>
+      </c>
+      <c r="D246" t="s">
+        <v>303</v>
+      </c>
+      <c r="E246" t="s">
+        <v>321</v>
+      </c>
+      <c r="F246" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>72</v>
+      </c>
+      <c r="B247" t="s">
+        <v>83</v>
+      </c>
+      <c r="C247" t="s">
+        <v>269</v>
+      </c>
+      <c r="D247" t="s">
+        <v>311</v>
+      </c>
+      <c r="E247" t="s">
+        <v>320</v>
+      </c>
+      <c r="F247" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>73</v>
+      </c>
+      <c r="B248" t="s">
+        <v>172</v>
+      </c>
+      <c r="C248" t="s">
+        <v>270</v>
+      </c>
+      <c r="D248" t="s">
+        <v>312</v>
+      </c>
+      <c r="E248" t="s">
+        <v>320</v>
+      </c>
+      <c r="F248" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>173</v>
+      </c>
+      <c r="C249" t="s">
+        <v>271</v>
+      </c>
+      <c r="D249" t="s">
+        <v>313</v>
+      </c>
+      <c r="E249" t="s">
+        <v>320</v>
+      </c>
+      <c r="F249" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>75</v>
+      </c>
+      <c r="B250" t="s">
+        <v>174</v>
+      </c>
+      <c r="C250" t="s">
+        <v>272</v>
+      </c>
+      <c r="D250" t="s">
+        <v>314</v>
+      </c>
+      <c r="E250" t="s">
+        <v>320</v>
+      </c>
+      <c r="F250" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>75</v>
+      </c>
+      <c r="B251" t="s">
+        <v>175</v>
+      </c>
+      <c r="C251" t="s">
+        <v>273</v>
+      </c>
+      <c r="D251" t="s">
+        <v>315</v>
+      </c>
+      <c r="E251" t="s">
+        <v>320</v>
+      </c>
+      <c r="F251" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>76</v>
+      </c>
+      <c r="B252" t="s">
+        <v>176</v>
+      </c>
+      <c r="C252" t="s">
+        <v>274</v>
+      </c>
+      <c r="D252" t="s">
+        <v>310</v>
+      </c>
+      <c r="E252" t="s">
+        <v>321</v>
+      </c>
+      <c r="F252" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>77</v>
+      </c>
+      <c r="B253" t="s">
+        <v>99</v>
+      </c>
+      <c r="C253" t="s">
+        <v>275</v>
+      </c>
+      <c r="D253" t="s">
+        <v>310</v>
+      </c>
+      <c r="E253" t="s">
+        <v>321</v>
+      </c>
+      <c r="F253" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>78</v>
+      </c>
+      <c r="B254" t="s">
+        <v>177</v>
+      </c>
+      <c r="C254" t="s">
+        <v>276</v>
+      </c>
+      <c r="D254" t="s">
+        <v>310</v>
+      </c>
+      <c r="E254" t="s">
+        <v>321</v>
+      </c>
+      <c r="F254" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>79</v>
+      </c>
+      <c r="B255" t="s">
+        <v>178</v>
+      </c>
+      <c r="C255" t="s">
+        <v>277</v>
+      </c>
+      <c r="D255" t="s">
+        <v>304</v>
+      </c>
+      <c r="E255" t="s">
+        <v>321</v>
+      </c>
+      <c r="F255" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>80</v>
+      </c>
+      <c r="B256" t="s">
+        <v>179</v>
+      </c>
+      <c r="C256" t="s">
+        <v>278</v>
+      </c>
+      <c r="D256" t="s">
+        <v>304</v>
+      </c>
+      <c r="E256" t="s">
+        <v>321</v>
+      </c>
+      <c r="F256" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>81</v>
+      </c>
+      <c r="B257" t="s">
+        <v>180</v>
+      </c>
+      <c r="C257" t="s">
+        <v>279</v>
+      </c>
+      <c r="D257" t="s">
+        <v>304</v>
+      </c>
+      <c r="E257" t="s">
+        <v>321</v>
+      </c>
+      <c r="F257" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>82</v>
+      </c>
+      <c r="B258" t="s">
+        <v>181</v>
+      </c>
+      <c r="C258" t="s">
+        <v>280</v>
+      </c>
+      <c r="D258" t="s">
+        <v>305</v>
+      </c>
+      <c r="E258" t="s">
+        <v>321</v>
+      </c>
+      <c r="F258" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>83</v>
+      </c>
+      <c r="B259" t="s">
+        <v>182</v>
+      </c>
+      <c r="C259" t="s">
+        <v>281</v>
+      </c>
+      <c r="D259" t="s">
+        <v>305</v>
+      </c>
+      <c r="E259" t="s">
+        <v>321</v>
+      </c>
+      <c r="F259" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>84</v>
+      </c>
+      <c r="B260" t="s">
+        <v>183</v>
+      </c>
+      <c r="C260" t="s">
+        <v>282</v>
+      </c>
+      <c r="D260" t="s">
+        <v>306</v>
+      </c>
+      <c r="E260" t="s">
+        <v>321</v>
+      </c>
+      <c r="F260" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>85</v>
+      </c>
+      <c r="B261" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261" t="s">
+        <v>283</v>
+      </c>
+      <c r="D261" t="s">
+        <v>303</v>
+      </c>
+      <c r="E261" t="s">
+        <v>321</v>
+      </c>
+      <c r="F261" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>86</v>
+      </c>
+      <c r="B262" t="s">
+        <v>184</v>
+      </c>
+      <c r="C262" t="s">
+        <v>284</v>
+      </c>
+      <c r="D262" t="s">
+        <v>305</v>
+      </c>
+      <c r="E262" t="s">
+        <v>321</v>
+      </c>
+      <c r="F262" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>63</v>
+      </c>
+      <c r="B263" t="s">
+        <v>185</v>
+      </c>
+      <c r="C263" t="s">
+        <v>285</v>
+      </c>
+      <c r="D263" t="s">
+        <v>306</v>
+      </c>
+      <c r="E263" t="s">
+        <v>321</v>
+      </c>
+      <c r="F263" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264" t="s">
+        <v>114</v>
+      </c>
+      <c r="C264" t="s">
+        <v>286</v>
+      </c>
+      <c r="D264" t="s">
+        <v>304</v>
+      </c>
+      <c r="E264" t="s">
+        <v>321</v>
+      </c>
+      <c r="F264" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>57</v>
+      </c>
+      <c r="B265" t="s">
+        <v>157</v>
+      </c>
+      <c r="C265" t="s">
+        <v>287</v>
+      </c>
+      <c r="D265" t="s">
+        <v>304</v>
+      </c>
+      <c r="E265" t="s">
+        <v>321</v>
+      </c>
+      <c r="F265" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>87</v>
+      </c>
+      <c r="B266" t="s">
+        <v>186</v>
+      </c>
+      <c r="C266" t="s">
+        <v>288</v>
+      </c>
+      <c r="D266" t="s">
+        <v>304</v>
+      </c>
+      <c r="E266" t="s">
+        <v>321</v>
+      </c>
+      <c r="F266" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>88</v>
+      </c>
+      <c r="B267" t="s">
         <v>187</v>
       </c>
-      <c r="G153" t="s">
-        <v>194</v>
-      </c>
-      <c r="H153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="2" t="s">
-        <v>49</v>
+      <c r="C267" t="s">
+        <v>289</v>
+      </c>
+      <c r="D267" t="s">
+        <v>305</v>
+      </c>
+      <c r="E267" t="s">
+        <v>321</v>
+      </c>
+      <c r="F267" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>89</v>
+      </c>
+      <c r="B268" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268" t="s">
+        <v>290</v>
+      </c>
+      <c r="D268" t="s">
+        <v>309</v>
+      </c>
+      <c r="E268" t="s">
+        <v>321</v>
+      </c>
+      <c r="F268" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>67</v>
+      </c>
+      <c r="B269" t="s">
+        <v>85</v>
+      </c>
+      <c r="C269" t="s">
+        <v>291</v>
+      </c>
+      <c r="D269" t="s">
+        <v>304</v>
+      </c>
+      <c r="E269" t="s">
+        <v>321</v>
+      </c>
+      <c r="F269" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>61</v>
+      </c>
+      <c r="B270" t="s">
+        <v>189</v>
+      </c>
+      <c r="C270" t="s">
+        <v>292</v>
+      </c>
+      <c r="D270" t="s">
+        <v>303</v>
+      </c>
+      <c r="E270" t="s">
+        <v>321</v>
+      </c>
+      <c r="F270" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>90</v>
+      </c>
+      <c r="B271" t="s">
+        <v>190</v>
+      </c>
+      <c r="C271" t="s">
+        <v>293</v>
+      </c>
+      <c r="D271" t="s">
+        <v>310</v>
+      </c>
+      <c r="E271" t="s">
+        <v>321</v>
+      </c>
+      <c r="F271" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +7277,7 @@
     <hyperlink ref="E6" r:id="rId4"/>
     <hyperlink ref="E7" r:id="rId5"/>
     <hyperlink ref="A93" r:id="rId6"/>
-    <hyperlink ref="A154" r:id="rId7"/>
+    <hyperlink ref="A221" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
